--- a/trunk/Imagenes 1986/ACTORES 1986.xlsx
+++ b/trunk/Imagenes 1986/ACTORES 1986.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9017"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144315"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="225">
   <si>
     <t>PERS_ID</t>
   </si>
@@ -57,18 +57,12 @@
     <t>Hurt</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Harrison</t>
   </si>
   <si>
     <t>Ford</t>
   </si>
   <si>
-    <t>Chicago,Illinois</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Bumgarner</t>
   </si>
   <si>
-    <t>Norman,Oklahoma</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>Nicholson</t>
   </si>
   <si>
-    <t>New York City,New York</t>
-  </si>
-  <si>
     <t>Jonathan</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>Voight</t>
   </si>
   <si>
-    <t>Yonkers,New York</t>
-  </si>
-  <si>
     <t>Dominic</t>
   </si>
   <si>
@@ -114,9 +99,6 @@
     <t>Amici</t>
   </si>
   <si>
-    <t>Kenosha,Wisconsin</t>
-  </si>
-  <si>
     <t>Klaus</t>
   </si>
   <si>
@@ -126,27 +108,18 @@
     <t>Brandauer</t>
   </si>
   <si>
-    <t>Bad Aussee,Austria</t>
-  </si>
-  <si>
     <t>Edward</t>
   </si>
   <si>
     <t>Hickey</t>
   </si>
   <si>
-    <t>Brooklyn,New York</t>
-  </si>
-  <si>
     <t>Robert</t>
   </si>
   <si>
     <t>Loggia</t>
   </si>
   <si>
-    <t>Staten Island,New York</t>
-  </si>
-  <si>
     <t>Eric</t>
   </si>
   <si>
@@ -156,9 +129,6 @@
     <t>Roberts</t>
   </si>
   <si>
-    <t>Biloxi,Mississipi</t>
-  </si>
-  <si>
     <t>Geraldine</t>
   </si>
   <si>
@@ -183,9 +153,6 @@
     <t>Goldberg</t>
   </si>
   <si>
-    <t>Sigfrey,Denver</t>
-  </si>
-  <si>
     <t>Jessica</t>
   </si>
   <si>
@@ -195,9 +162,6 @@
     <t>Lange</t>
   </si>
   <si>
-    <t>Cloquet,Minnesota</t>
-  </si>
-  <si>
     <t>Meryl</t>
   </si>
   <si>
@@ -207,9 +171,6 @@
     <t>Streep</t>
   </si>
   <si>
-    <t>Summit,New Jersey</t>
-  </si>
-  <si>
     <t>Oprah</t>
   </si>
   <si>
@@ -219,27 +180,18 @@
     <t>Winfrey</t>
   </si>
   <si>
-    <t>Kosciusko,Mississipi</t>
-  </si>
-  <si>
     <t>Anjelica</t>
   </si>
   <si>
     <t>Huston</t>
   </si>
   <si>
-    <t>Santa Monica,California</t>
-  </si>
-  <si>
     <t>Margaret</t>
   </si>
   <si>
     <t>Avery</t>
   </si>
   <si>
-    <t>Magnum,Oklahoma</t>
-  </si>
-  <si>
     <t>Amy</t>
   </si>
   <si>
@@ -252,9 +204,6 @@
     <t>Tilly</t>
   </si>
   <si>
-    <t>Long Beach,California</t>
-  </si>
-  <si>
     <t>Stephen</t>
   </si>
   <si>
@@ -264,36 +213,24 @@
     <t>Grimes</t>
   </si>
   <si>
-    <t>Wybridge,Surrey,England</t>
-  </si>
-  <si>
     <t>Josie</t>
   </si>
   <si>
     <t>MacAvin</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Norman </t>
   </si>
   <si>
     <t>Garwood</t>
   </si>
   <si>
-    <t>Birmingham,England</t>
-  </si>
-  <si>
     <t>Maggie</t>
   </si>
   <si>
     <t>Gray</t>
   </si>
   <si>
-    <t>Tampa,Florida</t>
-  </si>
-  <si>
     <t>J.</t>
   </si>
   <si>
@@ -315,9 +252,6 @@
     <t>DeScenna</t>
   </si>
   <si>
-    <t>Warren,Ohio</t>
-  </si>
-  <si>
     <t>Yoshiro</t>
   </si>
   <si>
@@ -327,9 +261,6 @@
     <t>Shinobu</t>
   </si>
   <si>
-    <t>Setagaya,Tokio</t>
-  </si>
-  <si>
     <t>Stan</t>
   </si>
   <si>
@@ -351,18 +282,12 @@
     <t>Watkin</t>
   </si>
   <si>
-    <t>Rickson,Texas</t>
-  </si>
-  <si>
     <t>Allen</t>
   </si>
   <si>
     <t>Daviau</t>
   </si>
   <si>
-    <t>New Orleans</t>
-  </si>
-  <si>
     <t xml:space="preserve">William </t>
   </si>
   <si>
@@ -372,9 +297,6 @@
     <t>Fraker</t>
   </si>
   <si>
-    <t>Los Angeles,California</t>
-  </si>
-  <si>
     <t>Takao</t>
   </si>
   <si>
@@ -393,18 +315,12 @@
     <t>Nakai</t>
   </si>
   <si>
-    <t>Nagasaki</t>
-  </si>
-  <si>
     <t>Clement</t>
   </si>
   <si>
     <t>Seale</t>
   </si>
   <si>
-    <t>Warwick,Queensland,Australia</t>
-  </si>
-  <si>
     <t>Aggie</t>
   </si>
   <si>
@@ -414,45 +330,24 @@
     <t>Rodgers</t>
   </si>
   <si>
-    <t>Miami</t>
-  </si>
-  <si>
     <t>Albert</t>
   </si>
   <si>
     <t>Wolsky</t>
   </si>
   <si>
-    <t>Paris,France</t>
-  </si>
-  <si>
     <t>Milena</t>
   </si>
   <si>
     <t>Canonero</t>
   </si>
   <si>
-    <t>Como,Italia</t>
-  </si>
-  <si>
-    <t>Donfeld</t>
-  </si>
-  <si>
-    <t>Caracas,Venezuela</t>
-  </si>
-  <si>
     <t>Hector</t>
   </si>
   <si>
     <t>Babenco</t>
   </si>
   <si>
-    <t>Buenos Aires,Argentina</t>
-  </si>
-  <si>
-    <t>Nevada,Missouri</t>
-  </si>
-  <si>
     <t>Akira</t>
   </si>
   <si>
@@ -465,18 +360,12 @@
     <t>Weir</t>
   </si>
   <si>
-    <t>Sydney/Australia</t>
-  </si>
-  <si>
     <t>Susana</t>
   </si>
   <si>
     <t>Munoz</t>
   </si>
   <si>
-    <t>Bariloche,Argentina</t>
-  </si>
-  <si>
     <t>Lourdes</t>
   </si>
   <si>
@@ -489,9 +378,6 @@
     <t>Asher</t>
   </si>
   <si>
-    <t>Redford,Wisconsin</t>
-  </si>
-  <si>
     <t>Ken</t>
   </si>
   <si>
@@ -504,18 +390,12 @@
     <t>Squires</t>
   </si>
   <si>
-    <t>Massachusets</t>
-  </si>
-  <si>
     <t>Steven</t>
   </si>
   <si>
     <t>Okazaki</t>
   </si>
   <si>
-    <t>Venice,California</t>
-  </si>
-  <si>
     <t>Gardner</t>
   </si>
   <si>
@@ -579,9 +459,6 @@
     <t>McQuarrie</t>
   </si>
   <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Richard</t>
   </si>
   <si>
@@ -589,13 +466,238 @@
   </si>
   <si>
     <t>Woody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMIKO </t>
+  </si>
+  <si>
+    <t>NOGUCHI</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Feld</t>
+  </si>
+  <si>
+    <t>Irwing</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Pollack</t>
+  </si>
+  <si>
+    <t>Florio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David </t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>Willies</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Edelstein</t>
+  </si>
+  <si>
+    <t>Thom</t>
+  </si>
+  <si>
+    <t>Noble</t>
+  </si>
+  <si>
+    <t>Fedric</t>
+  </si>
+  <si>
+    <t>Steinkamp</t>
+  </si>
+  <si>
+    <t>Rudi</t>
+  </si>
+  <si>
+    <t>Fehr</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken </t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Fullerton</t>
+  </si>
+  <si>
+    <t>Georges</t>
+  </si>
+  <si>
+    <t>Delerue</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Broughton</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Jarre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionel </t>
+  </si>
+  <si>
+    <t>Richie</t>
+  </si>
+  <si>
+    <t>Jhonny</t>
+  </si>
+  <si>
+    <t>Colla</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Hamlisch</t>
+  </si>
+  <si>
+    <t>Weisman</t>
+  </si>
+  <si>
+    <t>Foreman</t>
+  </si>
+  <si>
+    <t>Feldman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard </t>
+  </si>
+  <si>
+    <t>Condie</t>
+  </si>
+  <si>
+    <t>Cilia</t>
+  </si>
+  <si>
+    <t>Van Dijk</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chris </t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Varney</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Oconell</t>
+  </si>
+  <si>
+    <t>Rutledge</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Vinton</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
+    <t>Luedtke</t>
+  </si>
+  <si>
+    <t>Menno</t>
+  </si>
+  <si>
+    <t>Meyjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonard </t>
+  </si>
+  <si>
+    <t>Schrader</t>
+  </si>
+  <si>
+    <t>Horton</t>
+  </si>
+  <si>
+    <t>Foote</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Puenzo</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>McKeown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob </t>
+  </si>
+  <si>
+    <t>Gale</t>
+  </si>
+  <si>
+    <t>Kelley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,7 +744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,34 +754,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -716,7 +818,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -751,7 +852,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,7 +933,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -842,7 +942,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -851,7 +951,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -927,19 +1027,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1071,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>171</v>
+      </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -984,1013 +1087,1917 @@
       <c r="H2" s="1">
         <v>18342</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>15535</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>10325</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="1">
         <v>13627</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>175</v>
+      </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1">
         <v>14243</v>
       </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>176</v>
+      </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1">
         <v>3074</v>
       </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>177</v>
+      </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1">
         <v>16245</v>
       </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>178</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
         <v>10124</v>
       </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>179</v>
+      </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H10" s="1">
         <v>10961</v>
       </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>180</v>
+      </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1">
         <v>20563</v>
       </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>181</v>
+      </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1">
         <v>9093</v>
       </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>182</v>
+      </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1">
         <v>11583</v>
       </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>183</v>
+      </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1">
         <v>20406</v>
       </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>184</v>
+      </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1">
         <v>18008</v>
       </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>185</v>
+      </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1"/>
       <c r="H16" s="1">
         <v>18071</v>
       </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>186</v>
+      </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1">
         <v>19753</v>
       </c>
-      <c r="J17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>187</v>
+      </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1">
         <v>18817</v>
       </c>
-      <c r="J18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>188</v>
+      </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1">
         <v>16091</v>
       </c>
-      <c r="J19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>189</v>
+      </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1">
         <v>18578</v>
       </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>190</v>
+      </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1">
         <v>21960</v>
       </c>
-      <c r="J21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>191</v>
+      </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1">
         <v>9970</v>
       </c>
-      <c r="J22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>192</v>
+      </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H23" s="1">
         <v>7287</v>
       </c>
-      <c r="J23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>193</v>
+      </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1">
         <v>17496</v>
       </c>
-      <c r="J24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>194</v>
+      </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H25" s="1">
         <v>32794</v>
       </c>
-      <c r="J25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>195</v>
+      </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1">
         <v>17712</v>
       </c>
-      <c r="J26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>196</v>
+      </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1">
         <v>23938</v>
       </c>
-      <c r="J27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>197</v>
+      </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="H28" s="1">
         <v>25716</v>
       </c>
-      <c r="J28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>198</v>
+      </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1">
         <v>8994</v>
       </c>
-      <c r="J29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>199</v>
+      </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H30" s="1">
         <v>8646</v>
       </c>
-      <c r="J30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>200</v>
+      </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="H31" s="1">
         <v>9634</v>
       </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>201</v>
+      </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="H32" s="1">
         <v>24495</v>
       </c>
-      <c r="J32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>202</v>
+      </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H33" s="1">
         <v>9214</v>
       </c>
-      <c r="J33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>203</v>
+      </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H34" s="1">
         <v>15506</v>
       </c>
-      <c r="J34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>204</v>
+      </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="H35" s="1">
         <v>8673</v>
       </c>
-      <c r="J35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>205</v>
+      </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="H36" s="1">
         <v>7370</v>
       </c>
-      <c r="J36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>206</v>
+      </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="H37" s="1">
         <v>13881</v>
       </c>
-      <c r="J37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>207</v>
+      </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H38" s="1">
         <v>607</v>
       </c>
-      <c r="J38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>208</v>
+      </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="H39" s="1">
         <v>15619</v>
       </c>
-      <c r="J39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>209</v>
+      </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="H40" s="1">
         <v>8643</v>
       </c>
-      <c r="J40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>210</v>
+      </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="H41" s="1">
         <v>11286</v>
       </c>
-      <c r="J41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>211</v>
+      </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="H42" s="1">
         <v>16723</v>
       </c>
-      <c r="J42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>212</v>
+      </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="D43" t="s">
+        <v>153</v>
       </c>
       <c r="H43" s="1">
         <v>4333</v>
       </c>
-      <c r="J43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>213</v>
+      </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="H44" s="1">
         <v>16840</v>
       </c>
-      <c r="J44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>214</v>
+      </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H45" s="1">
         <v>2409</v>
       </c>
-      <c r="J45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>215</v>
+      </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="H46" s="1">
         <v>3902</v>
       </c>
-      <c r="J46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>216</v>
+      </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="H47" s="1">
         <v>16305</v>
       </c>
-      <c r="J47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>217</v>
+      </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H48" s="1">
         <v>22230</v>
       </c>
-      <c r="J48" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>218</v>
+      </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="H49" s="1">
         <v>16299</v>
       </c>
-      <c r="J49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>219</v>
+      </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="H50" s="1">
         <v>2745</v>
       </c>
-      <c r="J50" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>220</v>
+      </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="H51" s="1">
         <v>19569</v>
       </c>
-      <c r="J51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>221</v>
+      </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="H52" s="1">
         <v>20742</v>
       </c>
-      <c r="J52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>222</v>
+      </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="H53" s="1">
         <v>19065</v>
       </c>
-      <c r="J53" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>223</v>
+      </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="H54" s="1">
         <v>607</v>
       </c>
-      <c r="J54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>224</v>
+      </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="H55" s="1">
         <v>11199</v>
       </c>
-      <c r="J55" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>225</v>
+      </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H56" s="1">
+        <v>15173</v>
+      </c>
+      <c r="J56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>226</v>
+      </c>
+      <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57" s="1">
+        <v>13989</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>227</v>
+      </c>
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="1">
+        <v>12842</v>
+      </c>
+      <c r="J58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>228</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="1">
         <v>11483</v>
       </c>
-      <c r="J56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" t="s">
-        <v>170</v>
-      </c>
-      <c r="E57" t="s">
-        <v>171</v>
-      </c>
-      <c r="H57" s="1">
+      <c r="J59">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>229</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="1">
         <v>14966</v>
       </c>
-      <c r="J57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="1">
+      <c r="J60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>230</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="1">
         <v>13039</v>
       </c>
-      <c r="J58">
+      <c r="J61">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" t="s">
-        <v>173</v>
-      </c>
-      <c r="H59" s="1">
-        <v>13961</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" t="s">
-        <v>174</v>
-      </c>
-      <c r="H60" s="1">
-        <v>12361</v>
-      </c>
-      <c r="J60">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" t="s">
-        <v>176</v>
-      </c>
-      <c r="H61" s="1">
-        <v>12127</v>
-      </c>
-      <c r="J61">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>231</v>
+      </c>
       <c r="B62" t="s">
         <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H62" s="1">
-        <v>17154</v>
+        <v>15196</v>
       </c>
       <c r="J62">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>232</v>
+      </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H63" s="1">
-        <v>19065</v>
+        <v>10462</v>
       </c>
       <c r="J63">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>233</v>
+      </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H64" s="1">
-        <v>8593</v>
+        <v>4205</v>
       </c>
       <c r="J64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>234</v>
+      </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H65" s="1">
-        <v>19067</v>
+        <v>5802</v>
       </c>
       <c r="J65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>235</v>
+      </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="H66" s="1">
-        <v>19065</v>
+        <v>13961</v>
       </c>
       <c r="J66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>236</v>
+      </c>
       <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" t="s">
+        <v>172</v>
+      </c>
+      <c r="H67" s="1">
+        <v>11322</v>
+      </c>
+      <c r="J67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>237</v>
+      </c>
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68" t="s">
+        <v>174</v>
+      </c>
+      <c r="H68" s="1">
+        <v>14879</v>
+      </c>
+      <c r="J68">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>238</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="1">
+        <v>12361</v>
+      </c>
+      <c r="J69">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>239</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" t="s">
+        <v>136</v>
+      </c>
+      <c r="H70" s="1">
+        <v>12127</v>
+      </c>
+      <c r="J70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>240</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="1">
+        <v>9203</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>241</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" t="s">
+        <v>178</v>
+      </c>
+      <c r="H72" s="1">
+        <v>16504</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>242</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" s="1">
+        <v>9023</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>243</v>
+      </c>
+      <c r="B74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" t="s">
+        <v>182</v>
+      </c>
+      <c r="H74" s="1">
+        <v>18069</v>
+      </c>
+      <c r="J74">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>244</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" t="s">
+        <v>184</v>
+      </c>
+      <c r="H75" s="1">
+        <v>19177</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>245</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
         <v>185</v>
       </c>
-      <c r="D67" t="s">
+      <c r="H76" s="1">
+        <v>18946</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>246</v>
+      </c>
+      <c r="B77" t="s">
         <v>186</v>
       </c>
-      <c r="H67" s="1">
+      <c r="D77" t="s">
+        <v>187</v>
+      </c>
+      <c r="H77" s="1">
+        <v>16225</v>
+      </c>
+      <c r="J77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>247</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" s="1">
+        <v>15411</v>
+      </c>
+      <c r="J78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79" s="1">
+        <v>9339</v>
+      </c>
+      <c r="J79">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80">
+        <v>249</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" t="s">
+        <v>190</v>
+      </c>
+      <c r="H80" s="1">
+        <v>10841</v>
+      </c>
+      <c r="J80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>250</v>
+      </c>
+      <c r="B81" t="s">
+        <v>124</v>
+      </c>
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+      <c r="H81" s="1">
+        <v>17154</v>
+      </c>
+      <c r="J81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
+      </c>
+      <c r="H82" s="1">
+        <v>15403</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
+      <c r="H83" s="1">
+        <v>14131</v>
+      </c>
+      <c r="J83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" t="s">
+        <v>139</v>
+      </c>
+      <c r="H84" s="1">
+        <v>19065</v>
+      </c>
+      <c r="J84">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="1">
+        <v>8593</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>255</v>
+      </c>
+      <c r="B86" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" s="1">
+        <v>14444</v>
+      </c>
+      <c r="J86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>256</v>
+      </c>
+      <c r="B87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" t="s">
+        <v>197</v>
+      </c>
+      <c r="H87" s="1">
+        <v>15835</v>
+      </c>
+      <c r="J87">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" s="1">
+        <v>19067</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>258</v>
+      </c>
+      <c r="B89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" t="s">
+        <v>199</v>
+      </c>
+      <c r="H89" s="1">
+        <v>18450</v>
+      </c>
+      <c r="J89">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>259</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" t="s">
+        <v>201</v>
+      </c>
+      <c r="H90" s="1">
+        <v>17518</v>
+      </c>
+      <c r="J90">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>260</v>
+      </c>
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="1">
+        <v>17285</v>
+      </c>
+      <c r="J91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>261</v>
+      </c>
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H92" s="1">
+        <v>21151</v>
+      </c>
+      <c r="J92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>262</v>
+      </c>
+      <c r="B93" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" t="s">
+        <v>144</v>
+      </c>
+      <c r="H93" s="1">
+        <v>19065</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>263</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>206</v>
+      </c>
+      <c r="H94" s="1">
+        <v>14838</v>
+      </c>
+      <c r="J94">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="H95" s="1">
+        <v>17706</v>
+      </c>
+      <c r="J95">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>265</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" s="1">
         <v>10757</v>
       </c>
-      <c r="J67" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" t="s">
-        <v>189</v>
-      </c>
-      <c r="H68" s="1">
+      <c r="J96">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>266</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="H97" s="1">
+        <v>17290</v>
+      </c>
+      <c r="J97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" t="s">
+        <v>148</v>
+      </c>
+      <c r="H98" s="1">
         <v>5556</v>
       </c>
-      <c r="J68">
+      <c r="J98">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" t="s">
-        <v>112</v>
-      </c>
-      <c r="H69" s="1">
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>268</v>
+      </c>
+      <c r="B99" t="s">
+        <v>210</v>
+      </c>
+      <c r="D99" t="s">
+        <v>211</v>
+      </c>
+      <c r="H99" s="1">
+        <v>15576</v>
+      </c>
+      <c r="J99">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>269</v>
+      </c>
+      <c r="B100" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100" t="s">
+        <v>213</v>
+      </c>
+      <c r="H100" s="1">
+        <v>19198</v>
+      </c>
+      <c r="J100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>270</v>
+      </c>
+      <c r="B101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+      <c r="H101" s="1">
+        <v>16040</v>
+      </c>
+      <c r="J101">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>271</v>
+      </c>
+      <c r="B102" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" t="s">
+        <v>217</v>
+      </c>
+      <c r="H102" s="1">
+        <v>5918</v>
+      </c>
+      <c r="J102">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>272</v>
+      </c>
+      <c r="B103" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" t="s">
+        <v>88</v>
+      </c>
+      <c r="H103" s="1">
         <v>13119</v>
       </c>
-      <c r="J69">
+      <c r="J103">
         <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>273</v>
+      </c>
+      <c r="B104" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" t="s">
+        <v>219</v>
+      </c>
+      <c r="H104" s="1">
+        <v>16852</v>
+      </c>
+      <c r="J104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>274</v>
+      </c>
+      <c r="B105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="1">
+        <v>16803</v>
+      </c>
+      <c r="J105">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H106" s="1">
+        <v>18773</v>
+      </c>
+      <c r="J106">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>276</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>224</v>
+      </c>
+      <c r="H107" s="1">
+        <v>9437</v>
+      </c>
+      <c r="J107">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>277</v>
+      </c>
+      <c r="B108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H108" s="1">
+        <v>13592</v>
+      </c>
+      <c r="J108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>278</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" t="s">
+        <v>156</v>
+      </c>
+      <c r="H109" s="1">
+        <v>12601</v>
+      </c>
+      <c r="J109">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>279</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>157</v>
+      </c>
+      <c r="H110" s="1">
+        <v>14691</v>
+      </c>
+      <c r="J110">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1999,24 +3006,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
